--- a/Final_Project/src/main/java/base/Db.xlsx
+++ b/Final_Project/src/main/java/base/Db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoTest\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoTest\Team22_FinalProject_AutomationTesting\Final_Project\src\main\java\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0940428-75F7-4C89-B586-E5B9B4F6ED5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B6778-54A2-483C-AD23-A16AC4DCE1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Login</t>
   </si>
@@ -34,6 +34,48 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>Myinfo</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>midlename</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>nickName</t>
+  </si>
+  <si>
+    <t>eloId</t>
+  </si>
+  <si>
+    <t>otherId</t>
+  </si>
+  <si>
+    <t>driverLicenseNum</t>
+  </si>
+  <si>
+    <t>SSNNum</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>maritalStt</t>
+  </si>
+  <si>
+    <t>militaryService</t>
   </si>
 </sst>
 </file>
@@ -75,13 +117,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,19 +408,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -387,7 +433,99 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>11111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>300</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:XFD1"/>
